--- a/test_case_data/bmc/bmc_credit_score_20210513.xlsx
+++ b/test_case_data/bmc/bmc_credit_score_20210513.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="信用分" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -828,7 +828,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test_case_data/bmc/bmc_credit_score_20210513.xlsx
+++ b/test_case_data/bmc/bmc_credit_score_20210513.xlsx
@@ -42,9 +42,6 @@
     <t>frontInterface</t>
   </si>
   <si>
-    <t>前置条件</t>
-  </si>
-  <si>
     <t>method</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
   </si>
   <si>
     <t>reqData</t>
-  </si>
-  <si>
-    <t>预期结果</t>
   </si>
   <si>
     <t>expectData</t>
@@ -347,9 +341,6 @@
     <t>操作失败</t>
   </si>
   <si>
-    <t>{"success":False,"msg":"已存在相同的学历"}</t>
-  </si>
-  <si>
     <t>creditscore026</t>
   </si>
   <si>
@@ -392,9 +383,6 @@
     <t>credit052</t>
   </si>
   <si>
-    <t>{"success":False,"msg":"已存在相同的单位"}</t>
-  </si>
-  <si>
     <t>creditscore030</t>
   </si>
   <si>
@@ -464,7 +452,24 @@
     <t>{"plateType":"01","plateNu":"%E8%B4%B5AHKCSNB","vehicleIdentifyNum":"985246","ownerName":"%E5%85%AB%E6%88%92"}</t>
   </si>
   <si>
-    <t>{"success":False,"msg":"车辆信息错误"}</t>
+    <t>{"success":false,"msg":"已存在相同的学历"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"msg":"已存在相同的单位"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"msg":"车辆信息错误"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontCondition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -827,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -872,1605 +877,1605 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="5"/>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="5"/>
       <c r="L14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="5"/>
       <c r="L15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="5"/>
       <c r="L16" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="5"/>
       <c r="L19" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="5"/>
       <c r="L20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="5"/>
       <c r="L21" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="5"/>
       <c r="L23" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="H26" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="5"/>
       <c r="L32" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="5"/>
       <c r="L33" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="5"/>
       <c r="L35" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -2478,5 +2483,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_case_data/bmc/bmc_credit_score_20210513.xlsx
+++ b/test_case_data/bmc/bmc_credit_score_20210513.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="158">
   <si>
     <t>caseNum</t>
   </si>
@@ -69,10 +69,6 @@
     <t xml:space="preserve">remarks </t>
   </si>
   <si>
-    <t>creditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>信用分</t>
   </si>
   <si>
@@ -107,368 +103,471 @@
     <t>邓茂生</t>
   </si>
   <si>
-    <t>creditscore002</t>
-  </si>
-  <si>
     <t>信用分详情传入空的城市代码</t>
   </si>
   <si>
     <t>{"bCityCode":"","bNetTag":"trf_mgt"}</t>
   </si>
   <si>
-    <t>creditscore003</t>
-  </si>
-  <si>
     <t>信用分详情传入错误的城市代码</t>
   </si>
   <si>
     <t>{"bCityCode":"1","bNetTag":"trf_mgt"}</t>
   </si>
   <si>
-    <t>creditscore004</t>
-  </si>
-  <si>
     <t>信用分详情传入空的网络标识</t>
   </si>
   <si>
     <t>{"bCityCode":"520100","bNetTag":""}</t>
   </si>
   <si>
-    <t>creditscore005</t>
-  </si>
-  <si>
     <t>信用分详情传入错误的网络标识</t>
   </si>
   <si>
     <t>{"bCityCode":"520100","bNetTag":"trt"}</t>
   </si>
   <si>
-    <t>creditscore006</t>
-  </si>
-  <si>
     <t>分享信用分</t>
   </si>
   <si>
+    <t>历史信用分</t>
+  </si>
+  <si>
+    <t>检查我的历史信用分</t>
+  </si>
+  <si>
+    <t>/credit/record/list</t>
+  </si>
+  <si>
+    <t>{"bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+  </si>
+  <si>
+    <t>历史信用分传入空的城市代码</t>
+  </si>
+  <si>
+    <t>历史信用分传入错误的城市代码</t>
+  </si>
+  <si>
+    <t>历史信用分传入空的网络标识</t>
+  </si>
+  <si>
+    <t>历史信用分传入错误的网络标识</t>
+  </si>
+  <si>
+    <t>我的交通信用分</t>
+  </si>
+  <si>
+    <t>去完善基础信息</t>
+  </si>
+  <si>
+    <t>/drivingLicense/image</t>
+  </si>
+  <si>
+    <t>{"bizType":"1","type":"front"}</t>
+  </si>
+  <si>
+    <t>获取身份证信息反面</t>
+  </si>
+  <si>
+    <t>{"bizType":"1","type":"back"}</t>
+  </si>
+  <si>
+    <t>{"bizType":"insurance","actionType":"forward"}</t>
+  </si>
+  <si>
+    <t>/sys/dict/list</t>
+  </si>
+  <si>
+    <t>{"dictType":"degree"}</t>
+  </si>
+  <si>
+    <t>/credit/education/addEducation</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"degree":"01","areaCode":"110000","area":"北京市","school":"北京大学","graduationDate":"2021-05"}</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>新增相同的学历信息</t>
+  </si>
+  <si>
+    <t>credit049</t>
+  </si>
+  <si>
+    <t>操作失败</t>
+  </si>
+  <si>
+    <t>{"id":"175"}</t>
+  </si>
+  <si>
+    <t>单位信息行业选择</t>
+  </si>
+  <si>
+    <t>{"dictType":"industry"}</t>
+  </si>
+  <si>
+    <t>/credit/work/addCompany</t>
+  </si>
+  <si>
+    <t>{"industryCode":"2","position":"测试","companyName":"测试","entryDate":"2021-05"}</t>
+  </si>
+  <si>
+    <t>新增相同的单位信息</t>
+  </si>
+  <si>
+    <t>credit052</t>
+  </si>
+  <si>
+    <t>{"id":"162"}</t>
+  </si>
+  <si>
+    <t>{"bizType":"scape","actionType":"forward"}</t>
+  </si>
+  <si>
+    <t>{"bizType":"mot","actionType":"forward"}</t>
+  </si>
+  <si>
+    <t>{"plateType":"01","plateNu":"%E8%B4%B5AHKCSNB","vehicleIdentifyNum":"985246","ownerName":"%E5%85%AB%E6%88%92"}</t>
+  </si>
+  <si>
+    <t>{"success":false,"msg":"已存在相同的学历"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"msg":"已存在相同的单位"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"msg":"车辆信息错误"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontCondition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharePiccreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordlistcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordlistcreditscore002</t>
+  </si>
+  <si>
+    <t>recordlistcreditscore003</t>
+  </si>
+  <si>
+    <t>recordlistcreditscore004</t>
+  </si>
+  <si>
+    <t>recordlistcreditscore005</t>
+  </si>
+  <si>
+    <t>imagestatuscreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>imagecreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>imagecreditscore002</t>
+  </si>
+  <si>
+    <t>/credit/work/getWorkList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWorkListcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectionlistcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/education/provinces</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>provincescreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addEducationcreditscore002</t>
+  </si>
+  <si>
+    <t>dictlistcreditscore002</t>
+  </si>
+  <si>
+    <t>addCompanycreditscore002</t>
+  </si>
+  <si>
+    <t>/vehicle/selection/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expirecreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用分详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vcreditscore002</t>
+  </si>
+  <si>
+    <t>Vcreditscore003</t>
+  </si>
+  <si>
+    <t>Vcreditscore004</t>
+  </si>
+  <si>
+    <t>Vcreditscore005</t>
+  </si>
+  <si>
+    <t>分享信用分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>/credit/pkCredit/sharePic</t>
-  </si>
-  <si>
-    <t>creditscore007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>历史信用分</t>
-  </si>
-  <si>
-    <t>检查我的历史信用分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/credit/record/list</t>
-  </si>
-  <si>
-    <t>{"bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-  </si>
-  <si>
-    <t>creditscore008</t>
-  </si>
-  <si>
-    <t>历史信用分传入空的城市代码</t>
-  </si>
-  <si>
-    <t>creditscore009</t>
-  </si>
-  <si>
-    <t>历史信用分传入错误的城市代码</t>
-  </si>
-  <si>
-    <t>creditscore010</t>
-  </si>
-  <si>
-    <t>历史信用分传入空的网络标识</t>
-  </si>
-  <si>
-    <t>creditscore011</t>
-  </si>
-  <si>
-    <t>历史信用分传入错误的网络标识</t>
-  </si>
-  <si>
-    <t>creditscore012</t>
-  </si>
-  <si>
-    <t>我的交通信用分</t>
-  </si>
-  <si>
-    <t>去完善基础信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/credit/base/list</t>
-  </si>
-  <si>
-    <t>creditscore013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>baselistcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取履约任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/credit/explore/performance/list</t>
-  </si>
-  <si>
-    <t>creditscore014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>performancelistcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>去完善身份证信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/credit/detail/idCard</t>
-  </si>
-  <si>
-    <t>creditscore015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idCardcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>去完善驾驶证信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/drivingLicense/image/status</t>
-  </si>
-  <si>
-    <t>creditscore016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取身份证信息正面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/drivingLicense/image</t>
-  </si>
-  <si>
-    <t>{"bizType":"1","type":"front"}</t>
-  </si>
-  <si>
-    <t>creditscore017</t>
-  </si>
-  <si>
-    <t>获取身份证信息反面</t>
-  </si>
-  <si>
-    <t>{"bizType":"1","type":"back"}</t>
-  </si>
-  <si>
-    <t>creditscore018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取我的车辆信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>managelistcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的学历信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/education/getEducationList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getEducationListcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的单位信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取车辆保险信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报废车辆信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/vehicle/manage/list</t>
-  </si>
-  <si>
-    <t>creditscore019</t>
-  </si>
-  <si>
-    <t>获取我的学历信息</t>
-  </si>
-  <si>
-    <t>/credit/education/getEducationList</t>
-  </si>
-  <si>
-    <t>creditscore020</t>
-  </si>
-  <si>
-    <t>获取我的单位信息</t>
-  </si>
-  <si>
-    <t>/credit/work/getWorkList</t>
-  </si>
-  <si>
-    <t>creditscore021</t>
-  </si>
-  <si>
-    <t>获取车辆保险信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectionlistcreditscore002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历认证地区选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历认证学历选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictlistcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sys/dict/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历认证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addEducationcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/education/addEducation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除学历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteEducationcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/education/deleteEducation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增单位信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addCompanycreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/work/addCompany</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除单位信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/work/deleteWork</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteWorkcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶证年审</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/explore/performance/wait/dl/examine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>examinecreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换驾驶证本人照片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/drivingLicense/image/text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>imagetextcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期满换证信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/explore/performance/wait/dl/expire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆年检信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/vehicle/selection/list</t>
-  </si>
-  <si>
-    <t>{"bizType":"insurance","actionType":"forward"}</t>
-  </si>
-  <si>
-    <t>creditscore022</t>
-  </si>
-  <si>
-    <t>学历认证地区选择</t>
-  </si>
-  <si>
-    <t>/credit/education/provinces</t>
-  </si>
-  <si>
-    <t>creditscore023</t>
-  </si>
-  <si>
-    <t>学历认证学历选择</t>
-  </si>
-  <si>
-    <t>/sys/dict/list</t>
-  </si>
-  <si>
-    <t>{"dictType":"degree"}</t>
-  </si>
-  <si>
-    <t>creditscore024</t>
-  </si>
-  <si>
-    <t>学历认证</t>
-  </si>
-  <si>
-    <t>/credit/education/addEducation</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>{"degree":"01","areaCode":"110000","area":"北京市","school":"北京大学","graduationDate":"2021-05"}</t>
-  </si>
-  <si>
-    <t>操作成功</t>
-  </si>
-  <si>
-    <t>creditscore025</t>
-  </si>
-  <si>
-    <t>新增相同的学历信息</t>
-  </si>
-  <si>
-    <t>credit049</t>
-  </si>
-  <si>
-    <t>操作失败</t>
-  </si>
-  <si>
-    <t>creditscore026</t>
-  </si>
-  <si>
-    <t>删除学历</t>
-  </si>
-  <si>
-    <t>/credit/education/deleteEducation</t>
-  </si>
-  <si>
-    <t>{"id":"175"}</t>
-  </si>
-  <si>
-    <t>creditscore027</t>
-  </si>
-  <si>
-    <t>单位信息行业选择</t>
-  </si>
-  <si>
-    <t>{"dictType":"industry"}</t>
-  </si>
-  <si>
-    <t>creditscore028</t>
-  </si>
-  <si>
-    <t>新增单位信息</t>
-  </si>
-  <si>
-    <t>/credit/work/addCompany</t>
-  </si>
-  <si>
-    <t>{"industryCode":"2","position":"测试","companyName":"测试","entryDate":"2021-05"}</t>
-  </si>
-  <si>
-    <t>creditscore029</t>
-  </si>
-  <si>
-    <t>新增相同的单位信息</t>
-  </si>
-  <si>
-    <t>credit052</t>
-  </si>
-  <si>
-    <t>creditscore030</t>
-  </si>
-  <si>
-    <t>删除单位信息</t>
-  </si>
-  <si>
-    <t>/credit/work/deleteWork</t>
-  </si>
-  <si>
-    <t>{"id":"162"}</t>
-  </si>
-  <si>
-    <t>creditscore031</t>
-  </si>
-  <si>
-    <t>驾驶证年审</t>
-  </si>
-  <si>
-    <t>/credit/explore/performance/wait/dl/examine</t>
-  </si>
-  <si>
-    <t>creditscore032</t>
-  </si>
-  <si>
-    <t>更换驾驶证本人照片</t>
-  </si>
-  <si>
-    <t>/drivingLicense/image/text</t>
-  </si>
-  <si>
-    <t>creditscore033</t>
-  </si>
-  <si>
-    <t>报废车辆信息</t>
-  </si>
-  <si>
-    <t>{"bizType":"scape","actionType":"forward"}</t>
-  </si>
-  <si>
-    <t>creditscore034</t>
-  </si>
-  <si>
-    <t>期满换证信息</t>
-  </si>
-  <si>
-    <t>/credit/explore/performance/wait/dl/expire</t>
-  </si>
-  <si>
-    <t>creditscore035</t>
-  </si>
-  <si>
-    <t>车辆年检信息</t>
-  </si>
-  <si>
-    <t>{"bizType":"mot","actionType":"forward"}</t>
-  </si>
-  <si>
-    <t>creditscore036</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehiclelistcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>添加车辆失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/vehicle/vCode/detail</t>
-  </si>
-  <si>
-    <t>{"plateType":"01","plateNu":"%E8%B4%B5AHKCSNB","vehicleIdentifyNum":"985246","ownerName":"%E5%85%AB%E6%88%92"}</t>
-  </si>
-  <si>
-    <t>{"success":false,"msg":"已存在相同的学历"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":false,"msg":"已存在相同的单位"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":false,"msg":"车辆信息错误"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectResult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>frontCondition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/myCredit/V2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -832,13 +931,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="32.25" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
@@ -877,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -889,7 +988,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -912,1570 +1011,1570 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="5"/>
       <c r="L13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="5"/>
       <c r="L14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="5"/>
       <c r="L15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="5"/>
       <c r="L16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="5" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="5" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="5"/>
       <c r="L19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="5"/>
       <c r="L20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="5"/>
       <c r="L21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="5" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="5"/>
+      <c r="K23" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="L23" s="2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="K24" s="5"/>
       <c r="L24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="5" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="5" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="5" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="5" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="5" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="5" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="5" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G32" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="H32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="5"/>
+      <c r="K32" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="L32" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="5"/>
       <c r="L33" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="K34" s="5"/>
       <c r="L34" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="5"/>
       <c r="L35" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="5" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="5" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>

--- a/test_case_data/bmc/bmc_credit_score_20210513.xlsx
+++ b/test_case_data/bmc/bmc_credit_score_20210513.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="160">
   <si>
     <t>caseNum</t>
   </si>
@@ -160,414 +160,425 @@
     <t>去完善基础信息</t>
   </si>
   <si>
-    <t>/drivingLicense/image</t>
+    <t>获取身份证信息反面</t>
+  </si>
+  <si>
+    <t>{"bizType":"1","type":"back"}</t>
+  </si>
+  <si>
+    <t>{"bizType":"insurance","actionType":"forward"}</t>
+  </si>
+  <si>
+    <t>/sys/dict/list</t>
+  </si>
+  <si>
+    <t>{"dictType":"degree"}</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"degree":"01","areaCode":"110000","area":"北京市","school":"北京大学","graduationDate":"2021-05"}</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>新增相同的学历信息</t>
+  </si>
+  <si>
+    <t>credit049</t>
+  </si>
+  <si>
+    <t>操作失败</t>
+  </si>
+  <si>
+    <t>{"id":"175"}</t>
+  </si>
+  <si>
+    <t>单位信息行业选择</t>
+  </si>
+  <si>
+    <t>{"dictType":"industry"}</t>
+  </si>
+  <si>
+    <t>/credit/work/addCompany</t>
+  </si>
+  <si>
+    <t>{"industryCode":"2","position":"测试","companyName":"测试","entryDate":"2021-05"}</t>
+  </si>
+  <si>
+    <t>新增相同的单位信息</t>
+  </si>
+  <si>
+    <t>credit052</t>
+  </si>
+  <si>
+    <t>{"id":"162"}</t>
+  </si>
+  <si>
+    <t>{"bizType":"scape","actionType":"forward"}</t>
+  </si>
+  <si>
+    <t>{"bizType":"mot","actionType":"forward"}</t>
+  </si>
+  <si>
+    <t>{"plateType":"01","plateNu":"%E8%B4%B5AHKCSNB","vehicleIdentifyNum":"985246","ownerName":"%E5%85%AB%E6%88%92"}</t>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontCondition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharePiccreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordlistcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordlistcreditscore002</t>
+  </si>
+  <si>
+    <t>recordlistcreditscore003</t>
+  </si>
+  <si>
+    <t>recordlistcreditscore004</t>
+  </si>
+  <si>
+    <t>recordlistcreditscore005</t>
+  </si>
+  <si>
+    <t>imagestatuscreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>imagecreditscore002</t>
+  </si>
+  <si>
+    <t>getWorkListcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectionlistcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/education/provinces</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>provincescreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addEducationcreditscore002</t>
+  </si>
+  <si>
+    <t>dictlistcreditscore002</t>
+  </si>
+  <si>
+    <t>addCompanycreditscore002</t>
+  </si>
+  <si>
+    <t>/vehicle/selection/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expirecreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用分详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vcreditscore002</t>
+  </si>
+  <si>
+    <t>Vcreditscore003</t>
+  </si>
+  <si>
+    <t>Vcreditscore004</t>
+  </si>
+  <si>
+    <t>Vcreditscore005</t>
+  </si>
+  <si>
+    <t>分享信用分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/pkCredit/sharePic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史信用分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/record/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/base/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>baselistcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取履约任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/explore/performance/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>performancelistcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去完善身份证信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/detail/idCard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idCardcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去完善驾驶证信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/drivingLicense/image/status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取身份证信息正面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的车辆信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>managelistcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的学历信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/education/getEducationList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getEducationListcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的单位信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取车辆保险信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报废车辆信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/manage/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectionlistcreditscore002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历认证地区选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历认证学历选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictlistcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sys/dict/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历认证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addEducationcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/education/addEducation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除学历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteEducationcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/education/deleteEducation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addCompanycreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除单位信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/work/deleteWork</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteWorkcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶证年审</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/explore/performance/wait/dl/examine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>examinecreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换驾驶证本人照片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/drivingLicense/image/text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>imagetextcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期满换证信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/explore/performance/wait/dl/expire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆年检信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/selection/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehiclelistcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加车辆失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/vCode/detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/myCredit/V2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"bizType":"1","type":"front"}</t>
-  </si>
-  <si>
-    <t>获取身份证信息反面</t>
-  </si>
-  <si>
-    <t>{"bizType":"1","type":"back"}</t>
-  </si>
-  <si>
-    <t>{"bizType":"insurance","actionType":"forward"}</t>
-  </si>
-  <si>
-    <t>/sys/dict/list</t>
-  </si>
-  <si>
-    <t>{"dictType":"degree"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailcreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/work/addCompany</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/credit/education/addEducation</t>
-  </si>
-  <si>
-    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1005,"msg":"车牌号不能为空"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/credit/work/getWorkList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增单位信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"industryCode":"2","position":"测试","companyName":"测试","entryDate":"2021-05"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1006,"msg":"无法填写同单位同岗位信息","errorMsg":"无法填写同单位同岗位信息"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"msg":"已存在相同的单位"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"degree":"01","areaCode":"110000","area":"北京市","school":"北京大学","graduationDate":"2021-05"}</t>
-  </si>
-  <si>
-    <t>操作成功</t>
-  </si>
-  <si>
-    <t>新增相同的学历信息</t>
-  </si>
-  <si>
-    <t>credit049</t>
-  </si>
-  <si>
-    <t>操作失败</t>
-  </si>
-  <si>
-    <t>{"id":"175"}</t>
-  </si>
-  <si>
-    <t>单位信息行业选择</t>
-  </si>
-  <si>
-    <t>{"dictType":"industry"}</t>
-  </si>
-  <si>
-    <t>/credit/work/addCompany</t>
-  </si>
-  <si>
-    <t>{"industryCode":"2","position":"测试","companyName":"测试","entryDate":"2021-05"}</t>
-  </si>
-  <si>
-    <t>新增相同的单位信息</t>
-  </si>
-  <si>
-    <t>credit052</t>
-  </si>
-  <si>
-    <t>{"id":"162"}</t>
-  </si>
-  <si>
-    <t>{"bizType":"scape","actionType":"forward"}</t>
-  </si>
-  <si>
-    <t>{"bizType":"mot","actionType":"forward"}</t>
-  </si>
-  <si>
-    <t>{"plateType":"01","plateNu":"%E8%B4%B5AHKCSNB","vehicleIdentifyNum":"985246","ownerName":"%E5%85%AB%E6%88%92"}</t>
-  </si>
-  <si>
-    <t>{"success":false,"msg":"已存在相同的学历"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":false,"msg":"已存在相同的单位"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":false,"msg":"车辆信息错误"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectResult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>frontCondition</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sharePiccreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordlistcreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordlistcreditscore002</t>
-  </si>
-  <si>
-    <t>recordlistcreditscore003</t>
-  </si>
-  <si>
-    <t>recordlistcreditscore004</t>
-  </si>
-  <si>
-    <t>recordlistcreditscore005</t>
-  </si>
-  <si>
-    <t>imagestatuscreditscore001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/drivingLicense/image/status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/drivingLicense/image/status</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>imagecreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>imagecreditscore002</t>
-  </si>
-  <si>
-    <t>/credit/work/getWorkList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>getWorkListcreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectionlistcreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/credit/education/provinces</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>provincescreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>addEducationcreditscore002</t>
-  </si>
-  <si>
-    <t>dictlistcreditscore002</t>
-  </si>
-  <si>
-    <t>addCompanycreditscore002</t>
-  </si>
-  <si>
-    <t>/vehicle/selection/list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expirecreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailcreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信用分详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vcreditscore002</t>
-  </si>
-  <si>
-    <t>Vcreditscore003</t>
-  </si>
-  <si>
-    <t>Vcreditscore004</t>
-  </si>
-  <si>
-    <t>Vcreditscore005</t>
-  </si>
-  <si>
-    <t>分享信用分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/credit/pkCredit/sharePic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史信用分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/credit/record/list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/credit/base/list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>baselistcreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取履约任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/credit/explore/performance/list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>performancelistcreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>去完善身份证信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/credit/detail/idCard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>idCardcreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>去完善驾驶证信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/drivingLicense/image/status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取身份证信息正面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/drivingLicense/image</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取我的车辆信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>managelistcreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取我的学历信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/credit/education/getEducationList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>getEducationListcreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取我的单位信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取车辆保险信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>报废车辆信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vehicle/manage/list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectionlistcreditscore002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历认证地区选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历认证学历选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictlistcreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/sys/dict/list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历认证</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>addEducationcreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/credit/education/addEducation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除学历</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteEducationcreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/credit/education/deleteEducation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增单位信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>addCompanycreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/credit/work/addCompany</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除单位信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/credit/work/deleteWork</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteWorkcreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>驾驶证年审</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/credit/explore/performance/wait/dl/examine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>examinecreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换驾驶证本人照片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/drivingLicense/image/text</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>imagetextcreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>期满换证信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/credit/explore/performance/wait/dl/expire</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆年检信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vehicle/selection/list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehiclelistcreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加车辆失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vehicle/vCode/detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vcreditscore001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/credit/myCredit/V2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -637,9 +648,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -648,6 +656,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -945,9 +956,9 @@
     <col min="6" max="6" width="44.625" customWidth="1"/>
     <col min="7" max="7" width="16.25" customWidth="1"/>
     <col min="8" max="8" width="31.25" customWidth="1"/>
-    <col min="11" max="11" width="65.875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="65.875" style="5" customWidth="1"/>
     <col min="12" max="12" width="21.375" customWidth="1"/>
-    <col min="13" max="13" width="56.375" customWidth="1"/>
+    <col min="13" max="13" width="56.375" style="5" customWidth="1"/>
     <col min="14" max="14" width="18.375" customWidth="1"/>
     <col min="15" max="15" width="24.625" customWidth="1"/>
     <col min="17" max="17" width="20" customWidth="1"/>
@@ -976,7 +987,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -984,13 +995,13 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1011,13 +1022,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1026,7 +1037,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
@@ -1036,13 +1047,13 @@
         <v>22</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N2" s="2"/>
@@ -1055,7 +1066,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -1080,13 +1091,13 @@
         <v>22</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N3" s="2"/>
@@ -1099,7 +1110,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -1124,13 +1135,13 @@
         <v>22</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N4" s="2"/>
@@ -1143,7 +1154,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -1168,13 +1179,13 @@
         <v>22</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N5" s="2"/>
@@ -1187,7 +1198,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -1212,13 +1223,13 @@
         <v>22</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N6" s="2"/>
@@ -1231,13 +1242,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -1246,7 +1257,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
@@ -1256,13 +1267,13 @@
         <v>22</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>34</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N7" s="2"/>
@@ -1275,13 +1286,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -1290,7 +1301,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
@@ -1300,13 +1311,13 @@
         <v>22</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N8" s="2"/>
@@ -1319,7 +1330,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -1344,13 +1355,13 @@
         <v>22</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N9" s="2"/>
@@ -1363,7 +1374,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
@@ -1388,13 +1399,13 @@
         <v>22</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N10" s="2"/>
@@ -1407,7 +1418,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -1432,13 +1443,13 @@
         <v>22</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N11" s="2"/>
@@ -1451,7 +1462,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
@@ -1476,13 +1487,13 @@
         <v>22</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N12" s="2"/>
@@ -1495,7 +1506,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
@@ -1510,7 +1521,7 @@
         <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
@@ -1520,11 +1531,11 @@
         <v>22</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="4"/>
       <c r="L13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N13" s="2"/>
@@ -1537,7 +1548,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
@@ -1549,10 +1560,10 @@
         <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
@@ -1562,11 +1573,11 @@
         <v>22</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="4"/>
       <c r="L14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N14" s="2"/>
@@ -1579,7 +1590,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
@@ -1591,10 +1602,10 @@
         <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
@@ -1604,11 +1615,11 @@
         <v>22</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N15" s="2"/>
@@ -1621,7 +1632,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
@@ -1633,10 +1644,10 @@
         <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
@@ -1646,11 +1657,11 @@
         <v>22</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="5"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -1663,7 +1674,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -1675,10 +1686,10 @@
         <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
@@ -1688,13 +1699,13 @@
         <v>22</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="5" t="s">
-        <v>47</v>
+      <c r="K17" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2"/>
@@ -1707,7 +1718,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
@@ -1719,10 +1730,10 @@
         <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
@@ -1732,13 +1743,13 @@
         <v>22</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="5" t="s">
-        <v>49</v>
+      <c r="K18" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -1751,7 +1762,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>16</v>
@@ -1763,10 +1774,10 @@
         <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
@@ -1776,11 +1787,11 @@
         <v>22</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="5"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N19" s="2"/>
@@ -1793,7 +1804,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>16</v>
@@ -1805,10 +1816,10 @@
         <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
@@ -1818,11 +1829,11 @@
         <v>22</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="5"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -1835,7 +1846,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
@@ -1847,10 +1858,10 @@
         <v>18</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
@@ -1860,11 +1871,11 @@
         <v>22</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="5"/>
+      <c r="K21" s="4"/>
       <c r="L21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N21" s="2"/>
@@ -1877,7 +1888,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>16</v>
@@ -1889,10 +1900,10 @@
         <v>18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
@@ -1902,13 +1913,13 @@
         <v>22</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="5" t="s">
-        <v>50</v>
+      <c r="K22" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N22" s="2"/>
@@ -1921,7 +1932,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -1933,10 +1944,10 @@
         <v>18</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
@@ -1946,13 +1957,13 @@
         <v>22</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="5" t="s">
-        <v>68</v>
+      <c r="K23" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N23" s="2"/>
@@ -1965,7 +1976,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>16</v>
@@ -1977,10 +1988,10 @@
         <v>18</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
@@ -1990,11 +2001,11 @@
         <v>22</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="5"/>
+      <c r="K24" s="4"/>
       <c r="L24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N24" s="2"/>
@@ -2007,7 +2018,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>16</v>
@@ -2019,10 +2030,10 @@
         <v>18</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
@@ -2032,13 +2043,13 @@
         <v>22</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="5" t="s">
-        <v>52</v>
+      <c r="K25" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N25" s="2"/>
@@ -2051,7 +2062,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
@@ -2063,10 +2074,10 @@
         <v>18</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
@@ -2076,13 +2087,13 @@
         <v>22</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="5" t="s">
-        <v>62</v>
+      <c r="K26" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M26" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N26" s="2"/>
@@ -2095,7 +2106,7 @@
     </row>
     <row r="27" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>16</v>
@@ -2107,26 +2118,26 @@
         <v>18</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="5" t="s">
-        <v>55</v>
+      <c r="K27" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N27" s="2"/>
@@ -2139,7 +2150,7 @@
     </row>
     <row r="28" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
@@ -2151,29 +2162,29 @@
         <v>18</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="5" t="s">
-        <v>55</v>
+      <c r="K28" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2185,7 +2196,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -2197,28 +2208,28 @@
         <v>18</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="5" t="s">
-        <v>60</v>
+      <c r="K29" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M29" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N29" s="2"/>
@@ -2231,7 +2242,7 @@
     </row>
     <row r="30" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>16</v>
@@ -2243,26 +2254,26 @@
         <v>18</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="5" t="s">
-        <v>64</v>
+      <c r="K30" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M30" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N30" s="2"/>
@@ -2275,7 +2286,7 @@
     </row>
     <row r="31" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -2287,29 +2298,29 @@
         <v>18</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="H31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="5" t="s">
-        <v>64</v>
+      <c r="K31" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>72</v>
+        <v>56</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -2321,7 +2332,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>16</v>
@@ -2333,28 +2344,28 @@
         <v>18</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="5" t="s">
-        <v>67</v>
+      <c r="K32" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N32" s="2"/>
@@ -2367,7 +2378,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>16</v>
@@ -2379,10 +2390,10 @@
         <v>18</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
@@ -2392,11 +2403,11 @@
         <v>22</v>
       </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="5"/>
+      <c r="K33" s="4"/>
       <c r="L33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N33" s="2"/>
@@ -2409,7 +2420,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>16</v>
@@ -2421,10 +2432,10 @@
         <v>18</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
@@ -2434,11 +2445,11 @@
         <v>22</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="5"/>
+      <c r="K34" s="4"/>
       <c r="L34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M34" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N34" s="2"/>
@@ -2451,7 +2462,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>16</v>
@@ -2463,10 +2474,10 @@
         <v>18</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
@@ -2476,11 +2487,11 @@
         <v>22</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="5"/>
+      <c r="K35" s="4"/>
       <c r="L35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M35" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N35" s="2"/>
@@ -2493,7 +2504,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>16</v>
@@ -2505,10 +2516,10 @@
         <v>18</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
@@ -2518,13 +2529,13 @@
         <v>22</v>
       </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="5" t="s">
-        <v>69</v>
+      <c r="K36" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N36" s="2"/>
@@ -2537,7 +2548,7 @@
     </row>
     <row r="37" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>16</v>
@@ -2549,10 +2560,10 @@
         <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
@@ -2562,14 +2573,14 @@
         <v>22</v>
       </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="5" t="s">
-        <v>70</v>
+      <c r="K37" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
